--- a/apps/load_data/2022/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/02/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY0222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY0222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F81A75-D39D-499C-94CD-5A14250058D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AB3A0-7A5E-4734-A05F-B9B6D76202DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$271</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$271</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11709" uniqueCount="3424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11689" uniqueCount="3421">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7189,9 +7190,6 @@
     <t>0128A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8449,9 +8447,6 @@
     <t>0092A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8762,9 +8757,6 @@
   </si>
   <si>
     <t>0062A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10300,7 +10292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11140,10 +11132,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD275" sqref="AD275"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43175,12 +43169,7 @@
       <c r="AB171" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>108</v>
       </c>
@@ -43233,16 +43222,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>119</v>
@@ -43257,13 +43246,13 @@
         <v>163</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>123</v>
@@ -43284,19 +43273,19 @@
         <v>113</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>131</v>
@@ -43334,19 +43323,19 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="Q172" s="3">
         <v>27241</v>
@@ -43375,12 +43364,7 @@
       <c r="AB172" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>108</v>
       </c>
@@ -43427,7 +43411,7 @@
         <v>113</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BB172" s="1">
         <v>2</v>
@@ -43436,13 +43420,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1744</v>
@@ -43457,13 +43441,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>123</v>
@@ -43487,16 +43471,16 @@
         <v>113</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>2075</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1749</v>
@@ -43537,19 +43521,19 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="Q173" s="3">
         <v>25223</v>
@@ -43578,12 +43562,7 @@
       <c r="AB173" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>108</v>
       </c>
@@ -43630,7 +43609,7 @@
         <v>113</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BB173" s="1">
         <v>2</v>
@@ -43639,13 +43618,13 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1684</v>
@@ -43663,13 +43642,13 @@
         <v>163</v>
       </c>
       <c r="BS173" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BT173" s="3">
         <v>36825</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>123</v>
@@ -43693,16 +43672,16 @@
         <v>113</v>
       </c>
       <c r="CD173" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="CE173" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CF173" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>1691</v>
@@ -43743,19 +43722,19 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="Q174" s="3">
         <v>27018</v>
@@ -43781,12 +43760,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>108</v>
       </c>
@@ -43836,7 +43810,7 @@
         <v>113</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BB174" s="1">
         <v>2</v>
@@ -43845,13 +43819,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>119</v>
@@ -43860,7 +43834,7 @@
         <v>107</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>123</v>
@@ -43878,16 +43852,16 @@
         <v>113</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>131</v>
@@ -43928,19 +43902,19 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="Q175" s="3">
         <v>29037</v>
@@ -43969,12 +43943,7 @@
       <c r="AB175" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>108</v>
       </c>
@@ -44024,7 +43993,7 @@
         <v>113</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BB175" s="1">
         <v>2</v>
@@ -44033,13 +44002,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>119</v>
@@ -44048,7 +44017,7 @@
         <v>107</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>123</v>
@@ -44069,13 +44038,13 @@
         <v>697</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>131</v>
@@ -44116,19 +44085,19 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="Q176" s="3">
         <v>26647</v>
@@ -44154,12 +44123,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>108</v>
       </c>
@@ -44209,7 +44173,7 @@
         <v>113</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB176" s="1">
         <v>2</v>
@@ -44218,13 +44182,13 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1107</v>
@@ -44236,7 +44200,7 @@
         <v>107</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>123</v>
@@ -44254,16 +44218,16 @@
         <v>113</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>1112</v>
@@ -44304,19 +44268,19 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="Q177" s="3">
         <v>25405</v>
@@ -44348,12 +44312,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>108</v>
       </c>
@@ -44400,7 +44359,7 @@
         <v>113</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BB177" s="1">
         <v>2</v>
@@ -44409,13 +44368,13 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>421</v>
@@ -44430,13 +44389,13 @@
         <v>120</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>123</v>
@@ -44454,16 +44413,16 @@
         <v>113</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>428</v>
@@ -44504,19 +44463,19 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="Q178" s="3">
         <v>28845</v>
@@ -44542,12 +44501,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>108</v>
       </c>
@@ -44597,7 +44551,7 @@
         <v>113</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BB178" s="1">
         <v>2</v>
@@ -44606,13 +44560,13 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>2339</v>
@@ -44624,7 +44578,7 @@
         <v>107</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>123</v>
@@ -44642,16 +44596,16 @@
         <v>113</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>2344</v>
@@ -44692,19 +44646,19 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="Q179" s="3">
         <v>21425</v>
@@ -44730,12 +44684,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>108</v>
       </c>
@@ -44785,7 +44734,7 @@
         <v>113</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BB179" s="1">
         <v>2</v>
@@ -44794,13 +44743,13 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>601</v>
@@ -44815,7 +44764,7 @@
         <v>163</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>123</v>
@@ -44833,16 +44782,16 @@
         <v>113</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>607</v>
@@ -44877,25 +44826,25 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="Q180" s="3">
         <v>23286</v>
@@ -44924,12 +44873,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>108</v>
       </c>
@@ -44979,7 +44923,7 @@
         <v>113</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BB180" s="1">
         <v>2</v>
@@ -44988,13 +44932,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>119</v>
@@ -45003,7 +44947,7 @@
         <v>107</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>123</v>
@@ -45015,7 +44959,7 @@
         <v>112</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>125</v>
@@ -45024,16 +44968,16 @@
         <v>113</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>131</v>
@@ -45074,19 +45018,19 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="Q181" s="3">
         <v>26907</v>
@@ -45112,12 +45056,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2388</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>108</v>
       </c>
@@ -45164,7 +45103,7 @@
         <v>113</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BB181" s="1">
         <v>2</v>
@@ -45173,16 +45112,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>119</v>
@@ -45194,13 +45133,13 @@
         <v>120</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>123</v>
@@ -45218,19 +45157,19 @@
         <v>113</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1876</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>131</v>
@@ -45268,19 +45207,19 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="Q182" s="3">
         <v>28642</v>
@@ -45358,7 +45297,7 @@
         <v>113</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BB182" s="1">
         <v>2</v>
@@ -45367,13 +45306,13 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1921</v>
@@ -45388,7 +45327,7 @@
         <v>163</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>123</v>
@@ -45406,16 +45345,16 @@
         <v>113</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1925</v>
@@ -45456,19 +45395,19 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q183" s="3">
         <v>28239</v>
@@ -45540,7 +45479,7 @@
         <v>113</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BB183" s="1">
         <v>2</v>
@@ -45549,16 +45488,16 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>119</v>
@@ -45570,13 +45509,13 @@
         <v>222</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>123</v>
@@ -45594,19 +45533,19 @@
         <v>113</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>131</v>
@@ -45644,19 +45583,19 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="Q184" s="3">
         <v>25589</v>
@@ -45725,7 +45664,7 @@
         <v>113</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BB184" s="1">
         <v>2</v>
@@ -45734,16 +45673,16 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>119</v>
@@ -45755,13 +45694,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>123</v>
@@ -45779,19 +45718,19 @@
         <v>113</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>131</v>
@@ -45829,19 +45768,19 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="Q185" s="3">
         <v>29170</v>
@@ -45916,7 +45855,7 @@
         <v>113</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB185" s="1">
         <v>2</v>
@@ -45925,13 +45864,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>119</v>
@@ -45940,7 +45879,7 @@
         <v>107</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>123</v>
@@ -45958,16 +45897,16 @@
         <v>113</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>908</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>131</v>
@@ -46008,19 +45947,19 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Q186" s="3">
         <v>27250</v>
@@ -46053,7 +45992,7 @@
         <v>108</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>1989</v>
@@ -46098,7 +46037,7 @@
         <v>113</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB186" s="1">
         <v>2</v>
@@ -46107,13 +46046,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>119</v>
@@ -46122,7 +46061,7 @@
         <v>107</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>123</v>
@@ -46143,13 +46082,13 @@
         <v>1658</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>131</v>
@@ -46190,19 +46129,19 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="Q187" s="3">
         <v>27999</v>
@@ -46277,7 +46216,7 @@
         <v>113</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BB187" s="1">
         <v>2</v>
@@ -46286,16 +46225,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2592</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2593</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>119</v>
@@ -46307,13 +46246,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>123</v>
@@ -46337,13 +46276,13 @@
         <v>994</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>131</v>
@@ -46381,19 +46320,19 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="Q188" s="3">
         <v>29305</v>
@@ -46468,7 +46407,7 @@
         <v>113</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BB188" s="1">
         <v>2</v>
@@ -46477,13 +46416,13 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>1107</v>
@@ -46495,7 +46434,7 @@
         <v>107</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>123</v>
@@ -46513,16 +46452,16 @@
         <v>113</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>1112</v>
@@ -46563,19 +46502,19 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="Q189" s="3">
         <v>23125</v>
@@ -46611,7 +46550,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>108</v>
@@ -46665,16 +46604,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>119</v>
@@ -46686,13 +46625,13 @@
         <v>222</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>123</v>
@@ -46713,7 +46652,7 @@
         <v>113</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>297</v>
@@ -46722,10 +46661,10 @@
         <v>1689</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>131</v>
@@ -46763,19 +46702,19 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="Q190" s="3">
         <v>30023</v>
@@ -46853,13 +46792,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>1921</v>
@@ -46874,13 +46813,13 @@
         <v>120</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>123</v>
@@ -46904,10 +46843,10 @@
         <v>681</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>1925</v>
@@ -46948,19 +46887,19 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="Q191" s="3">
         <v>26205</v>
@@ -47041,7 +46980,7 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>116</v>
@@ -47056,7 +46995,7 @@
         <v>107</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>123</v>
@@ -47074,13 +47013,13 @@
         <v>113</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CF191" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>2132</v>
@@ -47124,19 +47063,19 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="Q192" s="3">
         <v>31662</v>
@@ -47220,13 +47159,13 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1107</v>
@@ -47241,7 +47180,7 @@
         <v>163</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>123</v>
@@ -47259,16 +47198,16 @@
         <v>113</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>1112</v>
@@ -47309,19 +47248,19 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Q193" s="3">
         <v>29117</v>
@@ -47399,16 +47338,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>119</v>
@@ -47420,13 +47359,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>123</v>
@@ -47447,16 +47386,16 @@
         <v>520</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>131</v>
@@ -47494,19 +47433,19 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Q194" s="3">
         <v>30007</v>
@@ -47584,16 +47523,16 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>119</v>
@@ -47605,13 +47544,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>123</v>
@@ -47632,16 +47571,16 @@
         <v>994</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>131</v>
@@ -47679,19 +47618,19 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="Q195" s="3">
         <v>26221</v>
@@ -47769,13 +47708,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>119</v>
@@ -47787,13 +47726,13 @@
         <v>120</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>123</v>
@@ -47811,16 +47750,16 @@
         <v>113</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>131</v>
@@ -47861,19 +47800,19 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="Q196" s="3">
         <v>27571</v>
@@ -47951,13 +47890,13 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>2003</v>
@@ -47972,13 +47911,13 @@
         <v>120</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>123</v>
@@ -47996,16 +47935,16 @@
         <v>113</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>2010</v>
@@ -48040,16 +47979,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -48127,7 +48066,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>119</v>
@@ -48142,7 +48081,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>125</v>
@@ -48151,7 +48090,7 @@
         <v>113</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>131</v>
@@ -48195,19 +48134,19 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="Q198" s="3">
         <v>30993</v>
@@ -48282,7 +48221,7 @@
         <v>113</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BB198" s="1">
         <v>2</v>
@@ -48291,7 +48230,7 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>116</v>
@@ -48306,7 +48245,7 @@
         <v>107</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>123</v>
@@ -48324,13 +48263,13 @@
         <v>113</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="CF198" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1074</v>
@@ -48374,19 +48313,19 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="Q199" s="3">
         <v>30065</v>
@@ -48461,7 +48400,7 @@
         <v>113</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BB199" s="1">
         <v>2</v>
@@ -48470,13 +48409,13 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1921</v>
@@ -48488,7 +48427,7 @@
         <v>107</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>123</v>
@@ -48506,16 +48445,16 @@
         <v>113</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1925</v>
@@ -48556,19 +48495,19 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="Q200" s="3">
         <v>30033</v>
@@ -48643,7 +48582,7 @@
         <v>113</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BB200" s="1">
         <v>2</v>
@@ -48652,13 +48591,13 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>119</v>
@@ -48667,7 +48606,7 @@
         <v>107</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>123</v>
@@ -48688,13 +48627,13 @@
         <v>1163</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>131</v>
@@ -48735,19 +48674,19 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="Q201" s="3">
         <v>29411</v>
@@ -48822,7 +48761,7 @@
         <v>113</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48831,13 +48770,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1921</v>
@@ -48855,13 +48794,13 @@
         <v>163</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>123</v>
@@ -48879,16 +48818,16 @@
         <v>113</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1925</v>
@@ -48929,19 +48868,19 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="Q202" s="3">
         <v>32173</v>
@@ -49019,16 +48958,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BI202" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>119</v>
@@ -49040,13 +48979,13 @@
         <v>103</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>123</v>
@@ -49064,19 +49003,19 @@
         <v>113</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="CI202" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2678</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>131</v>
@@ -49096,7 +49035,7 @@
         <v>429</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>113</v>
@@ -49108,16 +49047,16 @@
         <v>95</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -49147,7 +49086,7 @@
         <v>108</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1989</v>
@@ -49192,7 +49131,7 @@
         <v>113</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -49201,7 +49140,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>119</v>
@@ -49219,7 +49158,7 @@
         <v>0</v>
       </c>
       <c r="CA203" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="CB203" s="1" t="s">
         <v>125</v>
@@ -49228,7 +49167,7 @@
         <v>113</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1914</v>
@@ -49272,19 +49211,19 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="Q204" s="3">
         <v>30408</v>
@@ -49353,7 +49292,7 @@
         <v>113</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49362,13 +49301,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>766</v>
@@ -49383,13 +49322,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>123</v>
@@ -49407,16 +49346,16 @@
         <v>113</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>772</v>
@@ -49457,19 +49396,19 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="Q205" s="3">
         <v>28132</v>
@@ -49544,7 +49483,7 @@
         <v>113</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BB205" s="1">
         <v>2</v>
@@ -49553,13 +49492,13 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2339</v>
@@ -49571,7 +49510,7 @@
         <v>107</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>123</v>
@@ -49589,16 +49528,16 @@
         <v>113</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>2344</v>
@@ -49639,19 +49578,19 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="Q206" s="3">
         <v>31743</v>
@@ -49735,13 +49674,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>119</v>
@@ -49750,7 +49689,7 @@
         <v>107</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>123</v>
@@ -49768,16 +49707,16 @@
         <v>113</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>131</v>
@@ -49818,19 +49757,19 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="Q207" s="3">
         <v>23750</v>
@@ -49862,12 +49801,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>108</v>
       </c>
@@ -49917,7 +49851,7 @@
         <v>113</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="BB207" s="1">
         <v>2</v>
@@ -49926,16 +49860,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>119</v>
@@ -49944,7 +49878,7 @@
         <v>107</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>123</v>
@@ -49968,16 +49902,16 @@
         <v>1218</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2816</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>131</v>
@@ -49997,7 +49931,7 @@
         <v>91</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>113</v>
@@ -50009,16 +49943,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>112</v>
@@ -50042,7 +49976,7 @@
         <v>108</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>377</v>
@@ -50096,10 +50030,10 @@
         <v>113</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -50116,7 +50050,7 @@
         <v>1901</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>113</v>
@@ -50128,16 +50062,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>112</v>
@@ -50164,7 +50098,7 @@
         <v>108</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>377</v>
@@ -50209,7 +50143,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>125</v>
@@ -50218,10 +50152,10 @@
         <v>113</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -50238,7 +50172,7 @@
         <v>429</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>113</v>
@@ -50250,16 +50184,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>112</v>
@@ -50286,7 +50220,7 @@
         <v>108</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>377</v>
@@ -50331,7 +50265,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>125</v>
@@ -50340,10 +50274,10 @@
         <v>113</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -50360,7 +50294,7 @@
         <v>91</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -50372,16 +50306,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>112</v>
@@ -50453,7 +50387,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>125</v>
@@ -50462,10 +50396,10 @@
         <v>113</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50482,7 +50416,7 @@
         <v>91</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -50494,16 +50428,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>112</v>
@@ -50581,10 +50515,10 @@
         <v>113</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50601,7 +50535,7 @@
         <v>91</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50613,16 +50547,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>112</v>
@@ -50694,7 +50628,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>125</v>
@@ -50703,10 +50637,10 @@
         <v>113</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50723,7 +50657,7 @@
         <v>429</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
@@ -50735,16 +50669,16 @@
         <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>112</v>
@@ -50816,7 +50750,7 @@
         <v>0</v>
       </c>
       <c r="CA214" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="CB214" s="1" t="s">
         <v>125</v>
@@ -50825,10 +50759,10 @@
         <v>113</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50863,19 +50797,19 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="Q215" s="3">
         <v>26043</v>
@@ -50901,12 +50835,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>108</v>
       </c>
@@ -50959,13 +50888,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1174</v>
@@ -50980,13 +50909,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>123</v>
@@ -51004,16 +50933,16 @@
         <v>113</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2854</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2855</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2856</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>1180</v>
@@ -51054,19 +50983,19 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2857</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2858</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2859</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="Q216" s="3">
         <v>29945</v>
@@ -51092,12 +51021,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>108</v>
       </c>
@@ -51153,13 +51077,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>119</v>
@@ -51168,7 +51092,7 @@
         <v>107</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>123</v>
@@ -51186,16 +51110,16 @@
         <v>113</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>127</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>131</v>
@@ -51236,19 +51160,19 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2869</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="Q217" s="3">
         <v>29034</v>
@@ -51277,12 +51201,7 @@
       <c r="AB217" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>108</v>
       </c>
@@ -51335,13 +51254,13 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1174</v>
@@ -51356,13 +51275,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>123</v>
@@ -51380,16 +51299,16 @@
         <v>113</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1180</v>
@@ -51430,19 +51349,19 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2878</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="Q218" s="3">
         <v>29062</v>
@@ -51468,12 +51387,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>108</v>
       </c>
@@ -51529,13 +51443,13 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>601</v>
@@ -51547,7 +51461,7 @@
         <v>107</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>123</v>
@@ -51565,16 +51479,16 @@
         <v>113</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2886</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2888</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>607</v>
@@ -51615,19 +51529,19 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2889</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="Q219" s="3">
         <v>29181</v>
@@ -51653,12 +51567,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>108</v>
       </c>
@@ -51711,13 +51620,13 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>601</v>
@@ -51732,13 +51641,13 @@
         <v>222</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>123</v>
@@ -51759,13 +51668,13 @@
         <v>783</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2897</v>
-      </c>
-      <c r="CF219" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2899</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>607</v>
@@ -51806,19 +51715,19 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2900</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2902</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="Q220" s="3">
         <v>30033</v>
@@ -51844,12 +51753,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>108</v>
       </c>
@@ -51905,7 +51809,7 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>116</v>
@@ -51923,7 +51827,7 @@
         <v>107</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>123</v>
@@ -51941,13 +51845,13 @@
         <v>113</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2906</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2908</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>2320</v>
@@ -51991,19 +51895,19 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2909</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2911</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="Q221" s="3">
         <v>26843</v>
@@ -52029,12 +51933,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2913</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>108</v>
       </c>
@@ -52081,7 +51980,7 @@
         <v>113</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BB221" s="1">
         <v>2</v>
@@ -52090,16 +51989,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>119</v>
@@ -52111,13 +52010,13 @@
         <v>222</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>123</v>
@@ -52135,19 +52034,19 @@
         <v>113</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>131</v>
@@ -52185,19 +52084,19 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="Q222" s="3">
         <v>25903</v>
@@ -52281,19 +52180,19 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>123</v>
@@ -52311,16 +52210,16 @@
         <v>113</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="CF222" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="CH222" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="CF222" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>131</v>
@@ -52361,19 +52260,19 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="Q223" s="3">
         <v>28577</v>
@@ -52457,13 +52356,13 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>119</v>
@@ -52472,7 +52371,7 @@
         <v>107</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>123</v>
@@ -52493,13 +52392,13 @@
         <v>335</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>131</v>
@@ -52540,19 +52439,19 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="Q224" s="3">
         <v>23039</v>
@@ -52633,13 +52532,13 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>457</v>
@@ -52654,13 +52553,13 @@
         <v>222</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>123</v>
@@ -52678,16 +52577,16 @@
         <v>113</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>425</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>464</v>
@@ -52710,7 +52609,7 @@
         <v>429</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>93</v>
@@ -52722,22 +52621,22 @@
         <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52773,13 +52672,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>139</v>
@@ -52824,22 +52723,22 @@
         <v>113</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>2964</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>119</v>
@@ -52848,7 +52747,7 @@
         <v>107</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>123</v>
@@ -52857,7 +52756,7 @@
         <v>0</v>
       </c>
       <c r="CA225" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CB225" s="1" t="s">
         <v>125</v>
@@ -52872,13 +52771,13 @@
         <v>127</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CI225" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>131</v>
@@ -52892,13 +52791,13 @@
         <v>89</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>113</v>
@@ -52910,22 +52809,22 @@
         <v>95</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -52958,7 +52857,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>108</v>
@@ -53012,10 +52911,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>119</v>
@@ -53027,13 +52926,13 @@
         <v>222</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BT226" s="3">
         <v>102</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>123</v>
@@ -53045,7 +52944,7 @@
         <v>112</v>
       </c>
       <c r="CA226" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CB226" s="1" t="s">
         <v>125</v>
@@ -53054,16 +52953,16 @@
         <v>113</v>
       </c>
       <c r="CD226" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="CF226" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="CH226" s="1" t="s">
         <v>2985</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2986</v>
-      </c>
-      <c r="CF226" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="CH226" s="1" t="s">
-        <v>2988</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>131</v>
@@ -53083,7 +52982,7 @@
         <v>251</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>92</v>
@@ -53104,16 +53003,16 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -53143,7 +53042,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>237</v>
@@ -53197,10 +53096,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>119</v>
@@ -53212,13 +53111,13 @@
         <v>1708</v>
       </c>
       <c r="BS227" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BT227" s="3">
         <v>35915</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>123</v>
@@ -53248,10 +53147,10 @@
         <v>657</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>131</v>
@@ -53274,7 +53173,7 @@
         <v>91</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>113</v>
@@ -53286,22 +53185,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -53331,7 +53230,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>108</v>
@@ -53388,10 +53287,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>119</v>
@@ -53400,7 +53299,7 @@
         <v>107</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>123</v>
@@ -53424,16 +53323,16 @@
         <v>113</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>131</v>
@@ -53456,7 +53355,7 @@
         <v>91</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>113</v>
@@ -53468,7 +53367,7 @@
         <v>95</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>97</v>
@@ -53477,10 +53376,10 @@
         <v>2371</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>2373</v>
@@ -53513,7 +53412,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>108</v>
@@ -53567,10 +53466,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>119</v>
@@ -53582,7 +53481,7 @@
         <v>103</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BT229" s="3">
         <v>34412</v>
@@ -53597,7 +53496,7 @@
         <v>0</v>
       </c>
       <c r="CA229" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="CB229" s="1" t="s">
         <v>125</v>
@@ -53615,7 +53514,7 @@
         <v>2382</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>131</v>
@@ -53638,7 +53537,7 @@
         <v>1901</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>93</v>
@@ -53650,22 +53549,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53701,7 +53600,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>237</v>
@@ -53752,7 +53651,7 @@
         <v>113</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53761,10 +53660,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>119</v>
@@ -53773,7 +53672,7 @@
         <v>107</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>123</v>
@@ -53782,7 +53681,7 @@
         <v>0</v>
       </c>
       <c r="CA230" s="1" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="CB230" s="1" t="s">
         <v>125</v>
@@ -53791,16 +53690,16 @@
         <v>113</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CF230" s="1" t="s">
         <v>931</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>131</v>
@@ -53823,7 +53722,7 @@
         <v>91</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53835,22 +53734,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -53877,7 +53776,7 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>108</v>
@@ -53934,7 +53833,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>119</v>
@@ -53943,7 +53842,7 @@
         <v>107</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>123</v>
@@ -53955,7 +53854,7 @@
         <v>112</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>125</v>
@@ -53964,13 +53863,13 @@
         <v>113</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CF231" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>131</v>
@@ -53996,7 +53895,7 @@
         <v>1901</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>113</v>
@@ -54008,22 +53907,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -54049,17 +53948,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2808</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>377</v>
@@ -54107,10 +54001,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>119</v>
@@ -54122,13 +54016,13 @@
         <v>103</v>
       </c>
       <c r="BS232" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BT232" s="3">
         <v>37124</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>123</v>
@@ -54137,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>125</v>
@@ -54146,16 +54040,16 @@
         <v>113</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>131</v>
@@ -54178,7 +54072,7 @@
         <v>91</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>113</v>
@@ -54190,22 +54084,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -54244,7 +54138,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>108</v>
@@ -54295,25 +54189,25 @@
         <v>113</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>3054</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>3056</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>3057</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>119</v>
@@ -54322,7 +54216,7 @@
         <v>107</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>123</v>
@@ -54331,7 +54225,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>125</v>
@@ -54340,16 +54234,16 @@
         <v>113</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CF233" s="1" t="s">
         <v>505</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>131</v>
@@ -54369,7 +54263,7 @@
         <v>251</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>92</v>
@@ -54390,16 +54284,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -54432,7 +54326,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>108</v>
@@ -54486,10 +54380,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>119</v>
@@ -54501,13 +54395,13 @@
         <v>1708</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BT234" s="3">
         <v>35915</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>123</v>
@@ -54531,7 +54425,7 @@
         <v>657</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1914</v>
@@ -54569,22 +54463,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54620,7 +54514,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>108</v>
@@ -54677,10 +54571,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>119</v>
@@ -54689,7 +54583,7 @@
         <v>107</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>123</v>
@@ -54698,7 +54592,7 @@
         <v>0</v>
       </c>
       <c r="CA235" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="CB235" s="1" t="s">
         <v>125</v>
@@ -54710,10 +54604,10 @@
         <v>1313</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1914</v>
@@ -54730,10 +54624,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1287</v>
@@ -54748,7 +54642,7 @@
         <v>94</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1287</v>
@@ -54757,19 +54651,19 @@
         <v>92</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="Q236" s="3">
         <v>20466</v>
@@ -54817,7 +54711,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -54850,19 +54744,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>123</v>
@@ -54880,16 +54774,16 @@
         <v>113</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>131</v>
@@ -54903,10 +54797,10 @@
         <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1287</v>
@@ -54921,7 +54815,7 @@
         <v>94</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1287</v>
@@ -54930,19 +54824,19 @@
         <v>92</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="Q237" s="3">
         <v>24006</v>
@@ -54987,7 +54881,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -55023,19 +54917,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>123</v>
@@ -55062,10 +54956,10 @@
         <v>1109</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>131</v>
@@ -55079,10 +54973,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1287</v>
@@ -55097,7 +54991,7 @@
         <v>94</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1287</v>
@@ -55106,19 +55000,19 @@
         <v>92</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="Q238" s="3">
         <v>26193</v>
@@ -55163,7 +55057,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55199,19 +55093,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>123</v>
@@ -55232,16 +55126,16 @@
         <v>113</v>
       </c>
       <c r="CD238" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="CF238" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="CH238" s="1" t="s">
         <v>3106</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="CF238" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="CH238" s="1" t="s">
-        <v>3109</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>131</v>
@@ -55255,10 +55149,10 @@
         <v>88</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1287</v>
@@ -55273,7 +55167,7 @@
         <v>94</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1287</v>
@@ -55282,19 +55176,19 @@
         <v>92</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="Q239" s="3">
         <v>24325</v>
@@ -55375,19 +55269,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>123</v>
@@ -55408,7 +55302,7 @@
         <v>113</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>604</v>
@@ -55417,7 +55311,7 @@
         <v>505</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>131</v>
@@ -55431,10 +55325,10 @@
         <v>88</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1287</v>
@@ -55449,7 +55343,7 @@
         <v>94</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1287</v>
@@ -55458,19 +55352,19 @@
         <v>92</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="Q240" s="3">
         <v>24848</v>
@@ -55518,7 +55412,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55554,19 +55448,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>123</v>
@@ -55590,13 +55484,13 @@
         <v>488</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>131</v>
@@ -55610,10 +55504,10 @@
         <v>88</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1287</v>
@@ -55628,7 +55522,7 @@
         <v>94</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1287</v>
@@ -55637,19 +55531,19 @@
         <v>92</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="Q241" s="3">
         <v>27702</v>
@@ -55730,19 +55624,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>123</v>
@@ -55763,16 +55657,16 @@
         <v>113</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>616</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>131</v>
@@ -55786,10 +55680,10 @@
         <v>88</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1287</v>
@@ -55804,7 +55698,7 @@
         <v>94</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1287</v>
@@ -55813,19 +55707,19 @@
         <v>92</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="Q242" s="3">
         <v>23289</v>
@@ -55873,7 +55767,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55909,19 +55803,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>123</v>
@@ -55942,16 +55836,16 @@
         <v>113</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>131</v>
@@ -55965,10 +55859,10 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1287</v>
@@ -55983,7 +55877,7 @@
         <v>94</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1287</v>
@@ -55992,19 +55886,19 @@
         <v>92</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="Q243" s="3">
         <v>16546</v>
@@ -56052,7 +55946,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -56088,19 +55982,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>123</v>
@@ -56124,13 +56018,13 @@
         <v>1020</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>131</v>
@@ -56144,10 +56038,10 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1287</v>
@@ -56162,7 +56056,7 @@
         <v>94</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1287</v>
@@ -56171,10 +56065,10 @@
         <v>92</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -56216,7 +56110,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56252,7 +56146,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>119</v>
@@ -56276,7 +56170,7 @@
         <v>113</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>131</v>
@@ -56293,10 +56187,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1287</v>
@@ -56311,7 +56205,7 @@
         <v>94</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1287</v>
@@ -56320,19 +56214,19 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2313</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="Q245" s="3">
         <v>23611</v>
@@ -56377,7 +56271,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56410,19 +56304,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>123</v>
@@ -56440,16 +56334,16 @@
         <v>113</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="CH245" s="1" t="s">
         <v>3171</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="CF245" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="CH245" s="1" t="s">
-        <v>3174</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>131</v>
@@ -56463,10 +56357,10 @@
         <v>88</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1287</v>
@@ -56481,7 +56375,7 @@
         <v>94</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1287</v>
@@ -56490,13 +56384,13 @@
         <v>92</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56580,19 +56474,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>123</v>
@@ -56613,16 +56507,16 @@
         <v>2250</v>
       </c>
       <c r="CD246" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="CH246" s="1" t="s">
         <v>3181</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3182</v>
-      </c>
-      <c r="CF246" s="1" t="s">
-        <v>3183</v>
-      </c>
-      <c r="CH246" s="1" t="s">
-        <v>3184</v>
       </c>
       <c r="CI246" s="1" t="s">
         <v>131</v>
@@ -56636,10 +56530,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1287</v>
@@ -56654,7 +56548,7 @@
         <v>94</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1287</v>
@@ -56663,19 +56557,19 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="Q247" s="3">
         <v>26349</v>
@@ -56720,7 +56614,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56756,19 +56650,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>123</v>
@@ -56789,16 +56683,16 @@
         <v>113</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>131</v>
@@ -56812,10 +56706,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1287</v>
@@ -56830,7 +56724,7 @@
         <v>94</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1287</v>
@@ -56839,19 +56733,19 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="Q248" s="3">
         <v>30589</v>
@@ -56899,7 +56793,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56935,19 +56829,19 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>123</v>
@@ -56968,16 +56862,16 @@
         <v>113</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="CH248" s="1" t="s">
         <v>3203</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="CF248" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>3206</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>131</v>
@@ -56991,10 +56885,10 @@
         <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1287</v>
@@ -57009,7 +56903,7 @@
         <v>94</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1287</v>
@@ -57018,19 +56912,19 @@
         <v>92</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="Q249" s="3">
         <v>27354</v>
@@ -57078,7 +56972,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -57114,19 +57008,19 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>123</v>
@@ -57147,16 +57041,16 @@
         <v>113</v>
       </c>
       <c r="CD249" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="CE249" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="CF249" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="CH249" s="1" t="s">
         <v>3214</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="CF249" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="CH249" s="1" t="s">
-        <v>3217</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>131</v>
@@ -57170,10 +57064,10 @@
         <v>88</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1287</v>
@@ -57188,7 +57082,7 @@
         <v>94</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1287</v>
@@ -57197,19 +57091,19 @@
         <v>92</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="Q250" s="3">
         <v>13756</v>
@@ -57296,7 +57190,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>116</v>
@@ -57323,10 +57217,10 @@
         <v>113</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CF250" s="1" t="s">
         <v>210</v>
@@ -57346,10 +57240,10 @@
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1287</v>
@@ -57364,7 +57258,7 @@
         <v>94</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1287</v>
@@ -57373,19 +57267,19 @@
         <v>92</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="Q251" s="3">
         <v>26074</v>
@@ -57433,7 +57327,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57469,25 +57363,25 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BX251" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BY251" s="1">
         <v>0</v>
@@ -57505,16 +57399,16 @@
         <v>113</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CE251" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>131</v>
@@ -57528,10 +57422,10 @@
         <v>88</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1287</v>
@@ -57546,7 +57440,7 @@
         <v>94</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1287</v>
@@ -57555,19 +57449,19 @@
         <v>92</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="Q252" s="3">
         <v>28808</v>
@@ -57612,7 +57506,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57648,19 +57542,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>123</v>
@@ -57681,16 +57575,16 @@
         <v>113</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>131</v>
@@ -57704,10 +57598,10 @@
         <v>88</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1287</v>
@@ -57722,7 +57616,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1287</v>
@@ -57731,19 +57625,19 @@
         <v>92</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="R253" s="1" t="s">
         <v>137</v>
@@ -57767,7 +57661,7 @@
         <v>108</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>377</v>
@@ -57782,7 +57676,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57812,19 +57706,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>123</v>
@@ -57842,16 +57736,16 @@
         <v>113</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>312</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>131</v>
@@ -57865,10 +57759,10 @@
         <v>88</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1287</v>
@@ -57883,7 +57777,7 @@
         <v>94</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1287</v>
@@ -57892,19 +57786,19 @@
         <v>92</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="R254" s="1" t="s">
         <v>137</v>
@@ -57982,19 +57876,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>123</v>
@@ -58012,16 +57906,16 @@
         <v>113</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3262</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3265</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>131</v>
@@ -58035,10 +57929,10 @@
         <v>88</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1287</v>
@@ -58053,7 +57947,7 @@
         <v>94</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1287</v>
@@ -58062,19 +57956,19 @@
         <v>92</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="Q255" s="3">
         <v>29466</v>
@@ -58155,19 +58049,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>123</v>
@@ -58185,16 +58079,16 @@
         <v>113</v>
       </c>
       <c r="CD255" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CH255" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="CF255" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CH255" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>131</v>
@@ -58208,10 +58102,10 @@
         <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1287</v>
@@ -58226,7 +58120,7 @@
         <v>94</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1287</v>
@@ -58235,22 +58129,22 @@
         <v>92</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="Q256" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>137</v>
@@ -58292,7 +58186,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58325,19 +58219,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>123</v>
@@ -58355,16 +58249,16 @@
         <v>113</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3285</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3286</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3288</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>131</v>
@@ -58405,19 +58299,19 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="Q257" s="3">
         <v>31561</v>
@@ -58504,13 +58398,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>119</v>
@@ -58519,7 +58413,7 @@
         <v>107</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>123</v>
@@ -58549,10 +58443,10 @@
         <v>1279</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>131</v>
@@ -58593,19 +58487,19 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="Q258" s="3">
         <v>32847</v>
@@ -58689,13 +58583,13 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>119</v>
@@ -58710,13 +58604,13 @@
         <v>163</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BT258" s="3">
         <v>5347</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>123</v>
@@ -58740,16 +58634,16 @@
         <v>113</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>460</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>131</v>
@@ -58790,19 +58684,19 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="Q259" s="3">
         <v>29297</v>
@@ -58886,7 +58780,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>116</v>
@@ -58898,13 +58792,13 @@
         <v>222</v>
       </c>
       <c r="BS259" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BT259" s="3">
         <v>5480</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>123</v>
@@ -58931,10 +58825,10 @@
         <v>474</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>131</v>
@@ -58978,10 +58872,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -59011,10 +58905,10 @@
         <v>108</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>111</v>
@@ -59062,7 +58956,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>119</v>
@@ -59092,7 +58986,7 @@
         <v>93</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>131</v>
@@ -59136,10 +59030,10 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -59169,10 +59063,10 @@
         <v>108</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>111</v>
@@ -59220,7 +59114,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>119</v>
@@ -59247,7 +59141,7 @@
         <v>93</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>131</v>
@@ -59273,7 +59167,7 @@
         <v>429</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>113</v>
@@ -59285,22 +59179,22 @@
         <v>95</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -59336,13 +59230,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1989</v>
@@ -59387,7 +59281,7 @@
         <v>113</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -59396,10 +59290,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>119</v>
@@ -59411,13 +59305,13 @@
         <v>120</v>
       </c>
       <c r="BS262" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BT262" s="3">
         <v>34808</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>123</v>
@@ -59426,7 +59320,7 @@
         <v>0</v>
       </c>
       <c r="CA262" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="CB262" s="1" t="s">
         <v>125</v>
@@ -59435,13 +59329,13 @@
         <v>113</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1914</v>
@@ -59458,10 +59352,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1287</v>
@@ -59485,16 +59379,16 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -59548,7 +59442,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59578,7 +59472,7 @@
         <v>113</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -59587,13 +59481,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>123</v>
@@ -59611,13 +59505,13 @@
         <v>113</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>131</v>
@@ -59661,16 +59555,16 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59709,7 +59603,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>108</v>
@@ -59766,10 +59660,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>119</v>
@@ -59778,7 +59672,7 @@
         <v>107</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>123</v>
@@ -59802,13 +59696,13 @@
         <v>113</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>146</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>131</v>
@@ -59852,16 +59746,16 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59900,7 +59794,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>108</v>
@@ -59957,10 +59851,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>119</v>
@@ -59972,13 +59866,13 @@
         <v>120</v>
       </c>
       <c r="BS265" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BT265" s="3">
         <v>35711</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>123</v>
@@ -60002,7 +59896,7 @@
         <v>385</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>131</v>
@@ -60046,16 +59940,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -60091,16 +59985,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>111</v>
@@ -60148,10 +60042,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>119</v>
@@ -60160,13 +60054,13 @@
         <v>222</v>
       </c>
       <c r="BS266" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BT266" s="3">
         <v>2302</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>123</v>
@@ -60190,13 +60084,13 @@
         <v>93</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>131</v>
@@ -60240,16 +60134,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -60285,7 +60179,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>108</v>
@@ -60342,10 +60236,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>119</v>
@@ -60357,13 +60251,13 @@
         <v>222</v>
       </c>
       <c r="BS267" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BT267" s="3">
         <v>35108</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>123</v>
@@ -60381,16 +60275,16 @@
         <v>113</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>2007</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>131</v>
@@ -60431,19 +60325,19 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="Q268" s="3">
         <v>27265</v>
@@ -60527,19 +60421,19 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>123</v>
@@ -60560,16 +60454,16 @@
         <v>113</v>
       </c>
       <c r="CD268" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="CF268" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="CH268" s="1" t="s">
         <v>3391</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3392</v>
-      </c>
-      <c r="CF268" s="1" t="s">
-        <v>3393</v>
-      </c>
-      <c r="CH268" s="1" t="s">
-        <v>3394</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>131</v>
@@ -60610,16 +60504,16 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60655,16 +60549,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>113</v>
@@ -60715,16 +60609,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>123</v>
@@ -60748,13 +60642,13 @@
         <v>93</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>131</v>
@@ -60798,19 +60692,19 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="Q270" s="3">
         <v>27433</v>
@@ -60891,13 +60785,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>119</v>
@@ -60909,13 +60803,13 @@
         <v>120</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BT270" s="3">
         <v>35278</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>123</v>
@@ -60936,16 +60830,16 @@
         <v>113</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3410</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3411</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3412</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3413</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>131</v>
@@ -60959,10 +60853,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1287</v>
@@ -60977,7 +60871,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1287</v>
@@ -60986,19 +60880,19 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="Q271" s="3">
         <v>15186</v>
@@ -61046,7 +60940,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -61082,19 +60976,19 @@
         <v>22</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>123</v>
@@ -61121,10 +61015,10 @@
         <v>1544</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>131</v>
@@ -61134,6 +61028,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ271" xr:uid="{0CE7CAF3-8409-4ED1-80ED-C604678BA713}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>